--- a/api/mobile/mobile.xlsx
+++ b/api/mobile/mobile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="-1660" yWindow="460" windowWidth="16360" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
   <si>
     <t>Who</t>
   </si>
@@ -228,13 +228,28 @@
   </si>
   <si>
     <t>view charge for a plan usage on a number</t>
+  </si>
+  <si>
+    <t>/numbers/{nid}/plan</t>
+  </si>
+  <si>
+    <t>other user wants to create plan for number</t>
+  </si>
+  <si>
+    <t>other user wants to view plan for number</t>
+  </si>
+  <si>
+    <t>other user wants to update plan for number</t>
+  </si>
+  <si>
+    <t>PUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,6 +281,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -289,12 +311,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -574,17 +598,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="112" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -719,20 +743,20 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>200</v>
       </c>
     </row>
@@ -750,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="2">
-        <v>200404</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -771,20 +795,34 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E13" s="2"/>
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>201400404</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2">
         <v>200404</v>
@@ -795,47 +833,33 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2">
-        <v>201400404</v>
+        <v>204400404</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="2">
-        <v>200404</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2">
         <v>200404</v>
@@ -846,16 +870,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2">
-        <v>200404</v>
+        <v>201400404</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -863,16 +887,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2">
-        <v>201400404</v>
+        <v>200404</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -880,13 +904,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2">
         <v>200404</v>
@@ -897,33 +921,47 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2">
         <v>200404</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="2"/>
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2">
+        <v>201400404</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2">
         <v>200404</v>
@@ -934,47 +972,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2">
-        <v>201400404</v>
+        <v>200404</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2">
-        <v>200404</v>
-      </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2">
         <v>200404</v>
@@ -985,13 +1009,13 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2">
         <v>201400404</v>
@@ -1002,33 +1026,47 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2">
         <v>200404</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="2"/>
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="2">
+        <v>200404</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2">
         <v>201400404</v>
@@ -1039,47 +1077,33 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2">
         <v>200404</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="2">
-        <v>200404</v>
-      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2">
         <v>201400404</v>
@@ -1090,33 +1114,47 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2">
         <v>200404</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="2"/>
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="2">
+        <v>200404</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E36" s="2">
         <v>201400404</v>
@@ -1127,47 +1165,33 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E37" s="2">
         <v>200404</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="2">
-        <v>200404</v>
-      </c>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2">
         <v>201400404</v>
@@ -1178,15 +1202,66 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="2">
+        <v>200404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="2">
+        <v>200404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
         <v>64</v>
       </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="2">
+        <v>201400404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E43" s="2">
         <v>200404</v>
       </c>
     </row>
